--- a/px-files/sitemaps/sitemap.xlsx
+++ b/px-files/sitemaps/sitemap.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomk79/mydoc_TomK/projs/pickles2/tomk79/preset-pickles2-i18n/px-files/sitemaps/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48960634-A3C3-0840-B840-5A6D1F63D9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="sitemap" sheetId="1" r:id="rId4"/>
+    <sheet name="sitemap" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="147">
   <si>
     <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.8</t>
   </si>
@@ -144,9 +149,6 @@
   </si>
   <si>
     <t>getstart, sample</t>
-  </si>
-  <si>
-    <t>はじめて Pickles 2 を使う方のための情報をご紹介します。</t>
   </si>
   <si>
     <t>サイトマップを編集してみよう</t>
@@ -409,69 +411,137 @@
   </si>
   <si>
     <t>EndOfData</t>
+  </si>
+  <si>
+    <t>keywords(en)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>description(en)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>keywords for english</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>はじめて Pickles 2 を使う方のための情報をご紹介します。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Here's some information for those who are new to Pickles 2. </t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>title(en)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Home</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Get Started</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Edit Sitemap</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Edit Themes</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Edit Contents</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Publish</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Authoring Your Own Website</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>title_h1(en)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>title_label(en)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>title_breadcrumb(en)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>title_full(en)</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF333333"/>
       <name val="メイリオ"/>
+      <charset val="128"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
+      <charset val="128"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
+      <charset val="128"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Source Han Sans JP"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -487,19 +557,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFcccccc"/>
+        <fgColor rgb="FFCCCCCC"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFdddddd"/>
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
-    <border/>
+  <borders count="6">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -513,13 +601,14 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFdddddd"/>
+        <color rgb="FFDDDDDD"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -527,13 +616,14 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFdddddd"/>
+        <color rgb="FFDDDDDD"/>
       </left>
       <right style="thin">
-        <color rgb="FFdddddd"/>
+        <color rgb="FFDDDDDD"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -541,13 +631,14 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF666666"/>
       </left>
       <right style="thin">
-        <color rgb="FFdddddd"/>
+        <color rgb="FFDDDDDD"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -555,51 +646,59 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -889,43 +988,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:V39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AC39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="true" style="0"/>
-    <col min="2" max="2" width="3" customWidth="true" style="0"/>
-    <col min="3" max="3" width="3" customWidth="true" style="0"/>
-    <col min="4" max="4" width="3" customWidth="true" style="0"/>
-    <col min="5" max="5" width="3" customWidth="true" style="0"/>
-    <col min="6" max="6" width="3" customWidth="true" style="0"/>
-    <col min="7" max="7" width="20" customWidth="true" style="0"/>
-    <col min="8" max="8" width="2" customWidth="true" style="0"/>
-    <col min="9" max="9" width="2" customWidth="true" style="0"/>
-    <col min="10" max="10" width="2" customWidth="true" style="0"/>
-    <col min="11" max="11" width="2" customWidth="true" style="0"/>
-    <col min="12" max="12" width="40" customWidth="true" style="0"/>
-    <col min="13" max="13" width="20" customWidth="true" style="0"/>
-    <col min="14" max="14" width="3" customWidth="true" style="0"/>
-    <col min="15" max="15" width="9" customWidth="true" style="0"/>
-    <col min="18" max="18" width="30" customWidth="true" style="0"/>
-    <col min="17" max="17" width="30" customWidth="true" style="0"/>
-    <col min="16" max="16" width="3" customWidth="true" style="0"/>
-    <col min="19" max="19" width="3" customWidth="true" style="0"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="6" width="3" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="11" width="2" customWidth="1"/>
+    <col min="12" max="16" width="2.42578125" customWidth="1"/>
+    <col min="17" max="17" width="40" customWidth="1"/>
+    <col min="18" max="18" width="20" customWidth="1"/>
+    <col min="19" max="19" width="3" customWidth="1"/>
+    <col min="20" max="20" width="9" customWidth="1"/>
+    <col min="21" max="21" width="3" customWidth="1"/>
+    <col min="22" max="23" width="19.5703125" customWidth="1"/>
+    <col min="24" max="25" width="21" customWidth="1"/>
+    <col min="26" max="26" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" customHeight="1" ht="10">
+    <row r="1" spans="1:29" ht="10" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -950,29 +1040,36 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+    </row>
+    <row r="3" spans="1:29" ht="38">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:29">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:29">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
       <c r="H7" s="3" t="s">
         <v>5</v>
       </c>
@@ -985,52 +1082,59 @@
       <c r="K7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="R7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="S7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="T7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="V7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="W7" s="15"/>
+      <c r="X7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="AA7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="AB7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="V7" s="3" t="s">
+      <c r="AC7" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:29">
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
       <c r="H8" s="5" t="s">
         <v>22</v>
       </c>
@@ -1043,41 +1147,62 @@
       <c r="K8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="N8" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="O8" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="P8" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="R8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="S8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="T8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="U8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="V8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="W8" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="X8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="S8" s="5" t="s">
+      <c r="Y8" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="T8" s="5" t="s">
+      <c r="AA8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U8" s="5" t="s">
+      <c r="AB8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="V8" s="5" t="s">
+      <c r="AC8" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:29">
       <c r="A9" s="4"/>
       <c r="B9" s="8" t="s">
         <v>37</v>
@@ -1091,25 +1216,34 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4">
-        <v>1</v>
-      </c>
-      <c r="O9" s="4" t="s">
+      <c r="R9" s="4"/>
+      <c r="S9" s="4">
+        <v>1</v>
+      </c>
+      <c r="T9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
       <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10" s="4"/>
       <c r="B10" s="6"/>
       <c r="C10" s="8" t="s">
@@ -1123,34 +1257,55 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="N10" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="O10" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="P10" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4">
-        <v>1</v>
-      </c>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="R10" s="9" t="s">
-        <v>43</v>
-      </c>
+      <c r="R10" s="4"/>
       <c r="S10" s="4">
         <v>1</v>
       </c>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="V10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="W10" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="X10" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y10" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11" s="4"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="D11" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -1159,32 +1314,41 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4">
-        <v>1</v>
-      </c>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="R11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="S11" s="4"/>
+      <c r="L11" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4">
+        <v>1</v>
+      </c>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="V11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+    </row>
+    <row r="12" spans="1:29">
       <c r="A12" s="4"/>
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
       <c r="D12" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -1193,32 +1357,41 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4">
-        <v>1</v>
-      </c>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="R12" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="S12" s="4"/>
+      <c r="L12" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4">
+        <v>1</v>
+      </c>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="V12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13" s="4"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
       <c r="D13" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -1227,32 +1400,41 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4">
-        <v>1</v>
-      </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="R13" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="S13" s="4"/>
+      <c r="L13" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4">
+        <v>1</v>
+      </c>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="V13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14" s="4"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
       <c r="D14" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -1261,32 +1443,41 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4">
-        <v>1</v>
-      </c>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="R14" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="S14" s="4"/>
+      <c r="L14" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4">
+        <v>1</v>
+      </c>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="V14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15" s="4"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
       <c r="D15" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -1295,31 +1486,40 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4">
-        <v>1</v>
-      </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="R15" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="S15" s="4"/>
+      <c r="L15" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4">
+        <v>1</v>
+      </c>
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="V15" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+    </row>
+    <row r="16" spans="1:29">
       <c r="A16" s="4"/>
       <c r="B16" s="6"/>
       <c r="C16" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -1329,34 +1529,41 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="4" t="s">
-        <v>60</v>
-      </c>
+      <c r="L16" s="4"/>
       <c r="M16" s="4"/>
-      <c r="N16" s="4">
-        <v>1</v>
-      </c>
+      <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
-      <c r="Q16" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="R16" s="9" t="s">
-        <v>62</v>
-      </c>
+      <c r="Q16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="R16" s="4"/>
       <c r="S16" s="4">
         <v>1</v>
       </c>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="V16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+    </row>
+    <row r="17" spans="1:29">
       <c r="A17" s="4"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
       <c r="D17" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -1365,32 +1572,39 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="4" t="s">
-        <v>64</v>
-      </c>
+      <c r="L17" s="4"/>
       <c r="M17" s="4"/>
-      <c r="N17" s="4">
-        <v>1</v>
-      </c>
+      <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
-      <c r="Q17" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="R17" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="S17" s="4"/>
+      <c r="Q17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4">
+        <v>1</v>
+      </c>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="V17" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+    </row>
+    <row r="18" spans="1:29">
       <c r="A18" s="4"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
       <c r="D18" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -1399,32 +1613,39 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="4">
-        <v>1</v>
-      </c>
+      <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
-      <c r="Q18" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="R18" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="S18" s="4"/>
+      <c r="Q18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4">
+        <v>1</v>
+      </c>
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="V18" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+    </row>
+    <row r="19" spans="1:29">
       <c r="A19" s="4"/>
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
       <c r="D19" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -1433,32 +1654,39 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="4" t="s">
-        <v>70</v>
-      </c>
+      <c r="L19" s="4"/>
       <c r="M19" s="4"/>
-      <c r="N19" s="4">
-        <v>1</v>
-      </c>
+      <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
-      <c r="Q19" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="R19" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="S19" s="4"/>
+      <c r="Q19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4">
+        <v>1</v>
+      </c>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="V19" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+    </row>
+    <row r="20" spans="1:29">
       <c r="A20" s="4"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="D20" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -1467,32 +1695,39 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="L20" s="4"/>
       <c r="M20" s="4"/>
-      <c r="N20" s="4">
-        <v>1</v>
-      </c>
+      <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
-      <c r="Q20" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="R20" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="S20" s="4"/>
+      <c r="Q20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4">
+        <v>1</v>
+      </c>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="V20" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+    </row>
+    <row r="21" spans="1:29">
       <c r="A21" s="4"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
       <c r="D21" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -1501,32 +1736,39 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="4" t="s">
-        <v>76</v>
-      </c>
+      <c r="L21" s="4"/>
       <c r="M21" s="4"/>
-      <c r="N21" s="4">
-        <v>1</v>
-      </c>
+      <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
-      <c r="Q21" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="R21" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="S21" s="4"/>
+      <c r="Q21" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4">
+        <v>1</v>
+      </c>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="V21" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+    </row>
+    <row r="22" spans="1:29">
       <c r="A22" s="4"/>
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
       <c r="D22" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
@@ -1535,31 +1777,38 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="4" t="s">
-        <v>79</v>
-      </c>
+      <c r="L22" s="4"/>
       <c r="M22" s="4"/>
-      <c r="N22" s="4">
-        <v>1</v>
-      </c>
+      <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
-      <c r="Q22" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="R22" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="S22" s="4"/>
+      <c r="Q22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4">
+        <v>1</v>
+      </c>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-    </row>
-    <row r="23" spans="1:22">
+      <c r="V22" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+    </row>
+    <row r="23" spans="1:29">
       <c r="A23" s="4"/>
       <c r="B23" s="6"/>
       <c r="C23" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -1569,34 +1818,41 @@
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="4" t="s">
-        <v>82</v>
-      </c>
+      <c r="L23" s="4"/>
       <c r="M23" s="4"/>
-      <c r="N23" s="4">
-        <v>1</v>
-      </c>
+      <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
-      <c r="Q23" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="R23" s="9" t="s">
-        <v>84</v>
-      </c>
+      <c r="Q23" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R23" s="4"/>
       <c r="S23" s="4">
         <v>1</v>
       </c>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-    </row>
-    <row r="24" spans="1:22">
+      <c r="V23" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+    </row>
+    <row r="24" spans="1:29">
       <c r="A24" s="4"/>
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
       <c r="D24" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -1605,32 +1861,39 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="4" t="s">
-        <v>86</v>
-      </c>
+      <c r="L24" s="4"/>
       <c r="M24" s="4"/>
-      <c r="N24" s="4">
-        <v>1</v>
-      </c>
+      <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
-      <c r="Q24" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="R24" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="S24" s="4"/>
+      <c r="Q24" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4">
+        <v>1</v>
+      </c>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-    </row>
-    <row r="25" spans="1:22">
+      <c r="V24" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+    </row>
+    <row r="25" spans="1:29">
       <c r="A25" s="4"/>
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
       <c r="D25" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
@@ -1639,27 +1902,34 @@
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="L25" s="4"/>
       <c r="M25" s="4"/>
-      <c r="N25" s="4">
-        <v>1</v>
-      </c>
+      <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
-      <c r="Q25" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="R25" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="S25" s="4"/>
+      <c r="Q25" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4">
+        <v>1</v>
+      </c>
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-    </row>
-    <row r="26" spans="1:22">
+      <c r="V25" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="4"/>
+    </row>
+    <row r="26" spans="1:29">
       <c r="A26" s="4"/>
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
@@ -1670,43 +1940,50 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="J26" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="J26" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="K26" s="4"/>
-      <c r="L26" s="4" t="s">
-        <v>94</v>
-      </c>
+      <c r="L26" s="4"/>
       <c r="M26" s="4"/>
-      <c r="N26" s="4">
-        <v>1</v>
-      </c>
+      <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
-      <c r="Q26" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="R26" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="S26" s="4"/>
+      <c r="Q26" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4">
+        <v>1</v>
+      </c>
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-    </row>
-    <row r="27" spans="1:22">
+      <c r="V26" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="4"/>
+    </row>
+    <row r="27" spans="1:29">
       <c r="A27" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
       <c r="D27" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -1715,33 +1992,40 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="4" t="s">
-        <v>98</v>
-      </c>
+      <c r="L27" s="4"/>
       <c r="M27" s="4"/>
-      <c r="N27" s="4">
-        <v>1</v>
-      </c>
+      <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
-      <c r="Q27" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="R27" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="S27" s="4"/>
+      <c r="Q27" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4">
+        <v>1</v>
+      </c>
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-    </row>
-    <row r="28" spans="1:22">
+      <c r="V27" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
+    </row>
+    <row r="28" spans="1:29">
       <c r="A28" s="4"/>
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -1749,32 +2033,39 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
-      <c r="L28" s="4" t="s">
-        <v>101</v>
-      </c>
+      <c r="L28" s="4"/>
       <c r="M28" s="4"/>
-      <c r="N28" s="4">
-        <v>1</v>
-      </c>
+      <c r="N28" s="4"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
-      <c r="Q28" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="R28" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="S28" s="4"/>
+      <c r="Q28" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4">
+        <v>1</v>
+      </c>
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-    </row>
-    <row r="29" spans="1:22">
+      <c r="V28" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
+    </row>
+    <row r="29" spans="1:29">
       <c r="A29" s="4"/>
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
       <c r="D29" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
@@ -1783,34 +2074,41 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="N29" s="4">
-        <v>1</v>
-      </c>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
-      <c r="Q29" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="R29" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="S29" s="4"/>
+      <c r="Q29" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="S29" s="4">
+        <v>1</v>
+      </c>
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-    </row>
-    <row r="30" spans="1:22">
+      <c r="V29" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="4"/>
+    </row>
+    <row r="30" spans="1:29">
       <c r="A30" s="4"/>
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
       <c r="D30" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
@@ -1819,33 +2117,40 @@
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
-      <c r="L30" s="4" t="s">
-        <v>108</v>
-      </c>
+      <c r="L30" s="4"/>
       <c r="M30" s="4"/>
-      <c r="N30" s="4">
-        <v>1</v>
-      </c>
+      <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
-      <c r="Q30" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="R30" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="S30" s="4"/>
+      <c r="Q30" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4">
+        <v>1</v>
+      </c>
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-    </row>
-    <row r="31" spans="1:22">
+      <c r="V30" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4"/>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="4"/>
+    </row>
+    <row r="31" spans="1:29">
       <c r="A31" s="4"/>
       <c r="B31" s="6"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
@@ -1853,35 +2158,42 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="N31" s="4">
-        <v>1</v>
-      </c>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
-      <c r="Q31" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="R31" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="S31" s="4"/>
+      <c r="Q31" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="S31" s="4">
+        <v>1</v>
+      </c>
       <c r="T31" s="4"/>
       <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-    </row>
-    <row r="32" spans="1:22">
+      <c r="V31" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y31" s="9"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="4"/>
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="4"/>
+    </row>
+    <row r="32" spans="1:29">
       <c r="A32" s="4"/>
       <c r="B32" s="6"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
@@ -1889,34 +2201,41 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
-      <c r="L32" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="N32" s="4">
-        <v>1</v>
-      </c>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
-      <c r="Q32" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="R32" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="S32" s="4"/>
+      <c r="Q32" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="R32" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="S32" s="4">
+        <v>1</v>
+      </c>
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-    </row>
-    <row r="33" spans="1:22">
+      <c r="V32" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="4"/>
+      <c r="AB32" s="4"/>
+      <c r="AC32" s="4"/>
+    </row>
+    <row r="33" spans="1:29">
       <c r="A33" s="4"/>
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
       <c r="D33" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
@@ -1925,32 +2244,39 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
-      <c r="L33" s="4" t="s">
-        <v>117</v>
-      </c>
+      <c r="L33" s="4"/>
       <c r="M33" s="4"/>
-      <c r="N33" s="4">
-        <v>1</v>
-      </c>
+      <c r="N33" s="4"/>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
-      <c r="Q33" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="R33" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="S33" s="4"/>
+      <c r="Q33" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4">
+        <v>1</v>
+      </c>
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-    </row>
-    <row r="34" spans="1:22">
+      <c r="V33" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="4"/>
+    </row>
+    <row r="34" spans="1:29">
       <c r="A34" s="4"/>
       <c r="B34" s="6"/>
       <c r="C34" s="7"/>
       <c r="D34" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
@@ -1959,34 +2285,41 @@
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
-      <c r="L34" s="4" t="s">
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4">
+        <v>1</v>
+      </c>
+      <c r="T34" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4">
-        <v>1</v>
-      </c>
-      <c r="O34" s="4" t="s">
+      <c r="U34" s="4"/>
+      <c r="V34" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="R34" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-    </row>
-    <row r="35" spans="1:22">
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="4"/>
+    </row>
+    <row r="35" spans="1:29">
       <c r="A35" s="4"/>
       <c r="B35" s="6"/>
       <c r="C35" s="7"/>
       <c r="D35" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
@@ -1995,31 +2328,38 @@
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="4" t="s">
-        <v>124</v>
-      </c>
+      <c r="L35" s="4"/>
       <c r="M35" s="4"/>
-      <c r="N35" s="4">
-        <v>1</v>
-      </c>
+      <c r="N35" s="4"/>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
-      <c r="Q35" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="R35" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="S35" s="4"/>
+      <c r="Q35" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4">
+        <v>1</v>
+      </c>
       <c r="T35" s="4"/>
       <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-    </row>
-    <row r="36" spans="1:22">
+      <c r="V35" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4"/>
+    </row>
+    <row r="36" spans="1:29">
       <c r="A36" s="4"/>
       <c r="B36" s="6"/>
       <c r="C36" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -2029,29 +2369,36 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
-      <c r="L36" s="4" t="s">
-        <v>127</v>
-      </c>
+      <c r="L36" s="4"/>
       <c r="M36" s="4"/>
-      <c r="N36" s="4">
-        <v>1</v>
-      </c>
+      <c r="N36" s="4"/>
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
-      <c r="Q36" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="R36" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="S36" s="4"/>
+      <c r="Q36" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4">
+        <v>1</v>
+      </c>
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-    </row>
-    <row r="39" spans="1:22" customHeight="1" ht="5">
+      <c r="V36" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4"/>
+    </row>
+    <row r="39" spans="1:29" ht="5" customHeight="1">
       <c r="A39" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -2074,23 +2421,22 @@
       <c r="T39" s="10"/>
       <c r="U39" s="10"/>
       <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="10"/>
+      <c r="AA39" s="10"/>
+      <c r="AB39" s="10"/>
+      <c r="AC39" s="10"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="2">
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G8"/>
   </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/px-files/sitemaps/sitemap.xlsx
+++ b/px-files/sitemaps/sitemap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomk79/mydoc_TomK/projs/pickles2/tomk79/preset-pickles2-i18n/px-files/sitemaps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48960634-A3C3-0840-B840-5A6D1F63D9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE560FC-F0B7-1943-9CC9-D1AE8601BA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="180">
   <si>
     <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.8</t>
   </si>
@@ -478,6 +478,138 @@
   </si>
   <si>
     <t>title_full(en)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>title(ko)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>title_h1(ko)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>title_label(ko)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>title_breadcrumb(ko)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>title_full(ko)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>title(zh-CN)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>title_h1(zh-CN)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>title_label(zh-CN)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>title_breadcrumb(zh-CN)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>title_full(zh-CN)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>title(zh-TW)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>title_h1(zh-TW)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>title_label(zh-TW)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>title_breadcrumb(zh-TW)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>title_full(zh-TW)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>介绍</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>介紹</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>让我们编辑站点地图</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>讓我們編輯站點地圖</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>讓我們編輯主題</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>让我们编辑主题</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>테마를 편집 해 보자</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>사이트 맵을 편집 해 보자</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>시작하기</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>내용을 편집 해 보자</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>讓我們編輯內容</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>让我们编辑内容</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>让我们发布</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>讓我們發布</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>게시 해 보자</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>자신의 사이트를 편집하려고</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>編輯您的網站</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>编辑您的网站</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -536,7 +668,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -576,6 +708,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -665,7 +833,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -677,14 +845,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -989,13 +1167,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC39"/>
+  <dimension ref="A1:AR39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T22" sqref="T22"/>
+      <selection pane="bottomRight" activeCell="Y23" sqref="Y23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
@@ -1004,18 +1182,18 @@
     <col min="2" max="6" width="3" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
     <col min="8" max="11" width="2" customWidth="1"/>
-    <col min="12" max="16" width="2.42578125" customWidth="1"/>
-    <col min="17" max="17" width="40" customWidth="1"/>
-    <col min="18" max="18" width="20" customWidth="1"/>
-    <col min="19" max="19" width="3" customWidth="1"/>
-    <col min="20" max="20" width="9" customWidth="1"/>
-    <col min="21" max="21" width="3" customWidth="1"/>
-    <col min="22" max="23" width="19.5703125" customWidth="1"/>
-    <col min="24" max="25" width="21" customWidth="1"/>
-    <col min="26" max="26" width="3" customWidth="1"/>
+    <col min="12" max="31" width="2.42578125" customWidth="1"/>
+    <col min="32" max="32" width="40" customWidth="1"/>
+    <col min="33" max="33" width="20" customWidth="1"/>
+    <col min="34" max="34" width="3" customWidth="1"/>
+    <col min="35" max="35" width="9" customWidth="1"/>
+    <col min="36" max="36" width="3" customWidth="1"/>
+    <col min="37" max="38" width="19.5703125" customWidth="1"/>
+    <col min="39" max="40" width="21" customWidth="1"/>
+    <col min="41" max="41" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="10" customHeight="1">
+    <row r="1" spans="1:44" ht="10" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1047,29 +1225,44 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
-    </row>
-    <row r="3" spans="1:29" ht="38">
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+    </row>
+    <row r="3" spans="1:44" ht="38">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:44">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:44">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1082,59 +1275,74 @@
       <c r="K7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="3" t="s">
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="26"/>
+      <c r="AF7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="AG7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="AH7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="AI7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="AJ7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="V7" s="3" t="s">
+      <c r="AK7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="W7" s="15"/>
-      <c r="X7" s="3" t="s">
+      <c r="AL7" s="13"/>
+      <c r="AM7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="3" t="s">
+      <c r="AN7" s="13"/>
+      <c r="AO7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AA7" s="3" t="s">
+      <c r="AP7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AB7" s="3" t="s">
+      <c r="AQ7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AC7" s="3" t="s">
+      <c r="AR7" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:44">
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
       <c r="H8" s="5" t="s">
         <v>22</v>
       </c>
@@ -1147,62 +1355,107 @@
       <c r="K8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="M8" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="N8" s="18" t="s">
+      <c r="N8" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="O8" s="18" t="s">
+      <c r="O8" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="P8" s="18" t="s">
+      <c r="P8" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="Q8" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="R8" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="S8" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="T8" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="U8" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="V8" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="W8" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="X8" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y8" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z8" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA8" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB8" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC8" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD8" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE8" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="AG8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="S8" s="5" t="s">
+      <c r="AH8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="T8" s="5" t="s">
+      <c r="AI8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="U8" s="5" t="s">
+      <c r="AJ8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="V8" s="5" t="s">
+      <c r="AK8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="W8" s="14" t="s">
+      <c r="AL8" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="X8" s="5" t="s">
+      <c r="AM8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="Y8" s="14" t="s">
+      <c r="AN8" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="Z8" s="5" t="s">
+      <c r="AO8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AA8" s="5" t="s">
+      <c r="AP8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AB8" s="5" t="s">
+      <c r="AQ8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AC8" s="5" t="s">
+      <c r="AR8" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:44">
       <c r="A9" s="4"/>
       <c r="B9" s="8" t="s">
         <v>37</v>
@@ -1216,34 +1469,55 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="17" t="s">
+      <c r="L9" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="4" t="s">
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4">
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4">
         <v>1</v>
       </c>
-      <c r="T9" s="4" t="s">
+      <c r="AI9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="U9" s="4"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-    </row>
-    <row r="10" spans="1:29">
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="9"/>
+      <c r="AL9" s="9"/>
+      <c r="AM9" s="9"/>
+      <c r="AN9" s="9"/>
+      <c r="AO9" s="4"/>
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="4"/>
+      <c r="AR9" s="4"/>
+    </row>
+    <row r="10" spans="1:44">
       <c r="A10" s="4"/>
       <c r="B10" s="6"/>
       <c r="C10" s="8" t="s">
@@ -1257,50 +1531,63 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="17" t="s">
+      <c r="L10" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="M10" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="N10" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="O10" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="P10" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q10" s="4" t="s">
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4">
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4">
         <v>1</v>
       </c>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="9" t="s">
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="W10" s="16" t="s">
+      <c r="AL10" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="X10" s="16" t="s">
+      <c r="AM10" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="Y10" s="16" t="s">
+      <c r="AN10" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="Z10" s="4">
+      <c r="AO10" s="4">
         <v>1</v>
       </c>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-    </row>
-    <row r="11" spans="1:29">
+      <c r="AP10" s="4"/>
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="4"/>
+    </row>
+    <row r="11" spans="1:44">
       <c r="A11" s="4"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
@@ -1314,36 +1601,57 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="17" t="s">
+      <c r="L11" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="4" t="s">
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="15"/>
+      <c r="AF11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4">
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4">
         <v>1</v>
       </c>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="9" t="s">
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9" t="s">
+      <c r="AL11" s="9"/>
+      <c r="AM11" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-    </row>
-    <row r="12" spans="1:29">
+      <c r="AN11" s="9"/>
+      <c r="AO11" s="4"/>
+      <c r="AP11" s="4"/>
+      <c r="AQ11" s="4"/>
+      <c r="AR11" s="4"/>
+    </row>
+    <row r="12" spans="1:44">
       <c r="A12" s="4"/>
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
@@ -1357,36 +1665,57 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="17" t="s">
+      <c r="L12" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="4" t="s">
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15"/>
+      <c r="AE12" s="15"/>
+      <c r="AF12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4">
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4">
         <v>1</v>
       </c>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="9" t="s">
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9" t="s">
+      <c r="AL12" s="9"/>
+      <c r="AM12" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-    </row>
-    <row r="13" spans="1:29">
+      <c r="AN12" s="9"/>
+      <c r="AO12" s="4"/>
+      <c r="AP12" s="4"/>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="4"/>
+    </row>
+    <row r="13" spans="1:44">
       <c r="A13" s="4"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
@@ -1400,36 +1729,57 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="17" t="s">
+      <c r="L13" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="4" t="s">
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="15"/>
+      <c r="AF13" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4">
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4">
         <v>1</v>
       </c>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="9" t="s">
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9" t="s">
+      <c r="AL13" s="9"/>
+      <c r="AM13" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-    </row>
-    <row r="14" spans="1:29">
+      <c r="AN13" s="9"/>
+      <c r="AO13" s="4"/>
+      <c r="AP13" s="4"/>
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="4"/>
+    </row>
+    <row r="14" spans="1:44">
       <c r="A14" s="4"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
@@ -1443,36 +1793,57 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="17" t="s">
+      <c r="L14" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="4" t="s">
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="15"/>
+      <c r="AF14" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4">
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4">
         <v>1</v>
       </c>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="9" t="s">
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9" t="s">
+      <c r="AL14" s="9"/>
+      <c r="AM14" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-    </row>
-    <row r="15" spans="1:29">
+      <c r="AN14" s="9"/>
+      <c r="AO14" s="4"/>
+      <c r="AP14" s="4"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="4"/>
+    </row>
+    <row r="15" spans="1:44">
       <c r="A15" s="4"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
@@ -1486,36 +1857,57 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="17" t="s">
+      <c r="L15" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="4" t="s">
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="15"/>
+      <c r="AD15" s="15"/>
+      <c r="AE15" s="15"/>
+      <c r="AF15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4">
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4">
         <v>1</v>
       </c>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="9" t="s">
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9" t="s">
+      <c r="AL15" s="9"/>
+      <c r="AM15" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-    </row>
-    <row r="16" spans="1:29">
+      <c r="AN15" s="9"/>
+      <c r="AO15" s="4"/>
+      <c r="AP15" s="4"/>
+      <c r="AQ15" s="4"/>
+      <c r="AR15" s="4"/>
+    </row>
+    <row r="16" spans="1:44">
       <c r="A16" s="4"/>
       <c r="B16" s="6"/>
       <c r="C16" s="8" t="s">
@@ -1534,31 +1926,46 @@
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
-      <c r="Q16" s="4" t="s">
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4">
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4">
         <v>1</v>
       </c>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="9" t="s">
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9" t="s">
+      <c r="AL16" s="9"/>
+      <c r="AM16" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="4">
+      <c r="AN16" s="9"/>
+      <c r="AO16" s="4">
         <v>1</v>
       </c>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-    </row>
-    <row r="17" spans="1:29">
+      <c r="AP16" s="4"/>
+      <c r="AQ16" s="4"/>
+      <c r="AR16" s="4"/>
+    </row>
+    <row r="17" spans="1:44">
       <c r="A17" s="4"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
@@ -1577,29 +1984,44 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
-      <c r="Q17" s="4" t="s">
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4">
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4">
         <v>1</v>
       </c>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="9" t="s">
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9" t="s">
+      <c r="AL17" s="9"/>
+      <c r="AM17" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-    </row>
-    <row r="18" spans="1:29">
+      <c r="AN17" s="9"/>
+      <c r="AO17" s="4"/>
+      <c r="AP17" s="4"/>
+      <c r="AQ17" s="4"/>
+      <c r="AR17" s="4"/>
+    </row>
+    <row r="18" spans="1:44">
       <c r="A18" s="4"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
@@ -1618,29 +2040,44 @@
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
-      <c r="Q18" s="4" t="s">
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4">
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4">
         <v>1</v>
       </c>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="9" t="s">
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9" t="s">
+      <c r="AL18" s="9"/>
+      <c r="AM18" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-    </row>
-    <row r="19" spans="1:29">
+      <c r="AN18" s="9"/>
+      <c r="AO18" s="4"/>
+      <c r="AP18" s="4"/>
+      <c r="AQ18" s="4"/>
+      <c r="AR18" s="4"/>
+    </row>
+    <row r="19" spans="1:44">
       <c r="A19" s="4"/>
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
@@ -1659,29 +2096,44 @@
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
-      <c r="Q19" s="4" t="s">
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4">
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4">
         <v>1</v>
       </c>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="9" t="s">
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9" t="s">
+      <c r="AL19" s="9"/>
+      <c r="AM19" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-    </row>
-    <row r="20" spans="1:29">
+      <c r="AN19" s="9"/>
+      <c r="AO19" s="4"/>
+      <c r="AP19" s="4"/>
+      <c r="AQ19" s="4"/>
+      <c r="AR19" s="4"/>
+    </row>
+    <row r="20" spans="1:44">
       <c r="A20" s="4"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
@@ -1700,29 +2152,44 @@
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
-      <c r="Q20" s="4" t="s">
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4">
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4">
         <v>1</v>
       </c>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="9" t="s">
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9" t="s">
+      <c r="AL20" s="9"/>
+      <c r="AM20" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-    </row>
-    <row r="21" spans="1:29">
+      <c r="AN20" s="9"/>
+      <c r="AO20" s="4"/>
+      <c r="AP20" s="4"/>
+      <c r="AQ20" s="4"/>
+      <c r="AR20" s="4"/>
+    </row>
+    <row r="21" spans="1:44">
       <c r="A21" s="4"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
@@ -1741,29 +2208,44 @@
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
-      <c r="Q21" s="4" t="s">
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4">
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4">
         <v>1</v>
       </c>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="9" t="s">
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9" t="s">
+      <c r="AL21" s="9"/>
+      <c r="AM21" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
-    </row>
-    <row r="22" spans="1:29">
+      <c r="AN21" s="9"/>
+      <c r="AO21" s="4"/>
+      <c r="AP21" s="4"/>
+      <c r="AQ21" s="4"/>
+      <c r="AR21" s="4"/>
+    </row>
+    <row r="22" spans="1:44">
       <c r="A22" s="4"/>
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
@@ -1782,29 +2264,44 @@
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
-      <c r="Q22" s="4" t="s">
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="11"/>
+      <c r="AF22" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4">
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4">
         <v>1</v>
       </c>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="9" t="s">
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9" t="s">
+      <c r="AL22" s="9"/>
+      <c r="AM22" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-    </row>
-    <row r="23" spans="1:29">
+      <c r="AN22" s="9"/>
+      <c r="AO22" s="4"/>
+      <c r="AP22" s="4"/>
+      <c r="AQ22" s="4"/>
+      <c r="AR22" s="4"/>
+    </row>
+    <row r="23" spans="1:44">
       <c r="A23" s="4"/>
       <c r="B23" s="6"/>
       <c r="C23" s="8" t="s">
@@ -1823,31 +2320,46 @@
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
-      <c r="Q23" s="4" t="s">
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4">
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4">
         <v>1</v>
       </c>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="9" t="s">
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
+      <c r="AK23" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9" t="s">
+      <c r="AL23" s="9"/>
+      <c r="AM23" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="4">
+      <c r="AN23" s="9"/>
+      <c r="AO23" s="4">
         <v>1</v>
       </c>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="4"/>
-    </row>
-    <row r="24" spans="1:29">
+      <c r="AP23" s="4"/>
+      <c r="AQ23" s="4"/>
+      <c r="AR23" s="4"/>
+    </row>
+    <row r="24" spans="1:44">
       <c r="A24" s="4"/>
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
@@ -1866,29 +2378,44 @@
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
-      <c r="Q24" s="4" t="s">
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="11"/>
+      <c r="AD24" s="11"/>
+      <c r="AE24" s="11"/>
+      <c r="AF24" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4">
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="4">
         <v>1</v>
       </c>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="9" t="s">
+      <c r="AI24" s="4"/>
+      <c r="AJ24" s="4"/>
+      <c r="AK24" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9" t="s">
+      <c r="AL24" s="9"/>
+      <c r="AM24" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="4"/>
-    </row>
-    <row r="25" spans="1:29">
+      <c r="AN24" s="9"/>
+      <c r="AO24" s="4"/>
+      <c r="AP24" s="4"/>
+      <c r="AQ24" s="4"/>
+      <c r="AR24" s="4"/>
+    </row>
+    <row r="25" spans="1:44">
       <c r="A25" s="4"/>
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
@@ -1907,29 +2434,44 @@
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
-      <c r="Q25" s="4" t="s">
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="11"/>
+      <c r="AD25" s="11"/>
+      <c r="AE25" s="11"/>
+      <c r="AF25" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4">
+      <c r="AG25" s="4"/>
+      <c r="AH25" s="4">
         <v>1</v>
       </c>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="9" t="s">
+      <c r="AI25" s="4"/>
+      <c r="AJ25" s="4"/>
+      <c r="AK25" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9" t="s">
+      <c r="AL25" s="9"/>
+      <c r="AM25" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
-      <c r="AB25" s="4"/>
-      <c r="AC25" s="4"/>
-    </row>
-    <row r="26" spans="1:29">
+      <c r="AN25" s="9"/>
+      <c r="AO25" s="4"/>
+      <c r="AP25" s="4"/>
+      <c r="AQ25" s="4"/>
+      <c r="AR25" s="4"/>
+    </row>
+    <row r="26" spans="1:44">
       <c r="A26" s="4"/>
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
@@ -1954,29 +2496,44 @@
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
-      <c r="Q26" s="4" t="s">
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="11"/>
+      <c r="AD26" s="11"/>
+      <c r="AE26" s="11"/>
+      <c r="AF26" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4">
+      <c r="AG26" s="4"/>
+      <c r="AH26" s="4">
         <v>1</v>
       </c>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="9" t="s">
+      <c r="AI26" s="4"/>
+      <c r="AJ26" s="4"/>
+      <c r="AK26" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9" t="s">
+      <c r="AL26" s="9"/>
+      <c r="AM26" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
-      <c r="AB26" s="4"/>
-      <c r="AC26" s="4"/>
-    </row>
-    <row r="27" spans="1:29">
+      <c r="AN26" s="9"/>
+      <c r="AO26" s="4"/>
+      <c r="AP26" s="4"/>
+      <c r="AQ26" s="4"/>
+      <c r="AR26" s="4"/>
+    </row>
+    <row r="27" spans="1:44">
       <c r="A27" s="4" t="s">
         <v>95</v>
       </c>
@@ -1997,29 +2554,44 @@
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
-      <c r="Q27" s="4" t="s">
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="11"/>
+      <c r="AE27" s="11"/>
+      <c r="AF27" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4">
+      <c r="AG27" s="4"/>
+      <c r="AH27" s="4">
         <v>1</v>
       </c>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="9" t="s">
+      <c r="AI27" s="4"/>
+      <c r="AJ27" s="4"/>
+      <c r="AK27" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9" t="s">
+      <c r="AL27" s="9"/>
+      <c r="AM27" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
-      <c r="AB27" s="4"/>
-      <c r="AC27" s="4"/>
-    </row>
-    <row r="28" spans="1:29">
+      <c r="AN27" s="9"/>
+      <c r="AO27" s="4"/>
+      <c r="AP27" s="4"/>
+      <c r="AQ27" s="4"/>
+      <c r="AR27" s="4"/>
+    </row>
+    <row r="28" spans="1:44">
       <c r="A28" s="4"/>
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
@@ -2038,29 +2610,44 @@
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
-      <c r="Q28" s="4" t="s">
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="11"/>
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="11"/>
+      <c r="AF28" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4">
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="4">
         <v>1</v>
       </c>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="9" t="s">
+      <c r="AI28" s="4"/>
+      <c r="AJ28" s="4"/>
+      <c r="AK28" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9" t="s">
+      <c r="AL28" s="9"/>
+      <c r="AM28" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="4"/>
-      <c r="AB28" s="4"/>
-      <c r="AC28" s="4"/>
-    </row>
-    <row r="29" spans="1:29">
+      <c r="AN28" s="9"/>
+      <c r="AO28" s="4"/>
+      <c r="AP28" s="4"/>
+      <c r="AQ28" s="4"/>
+      <c r="AR28" s="4"/>
+    </row>
+    <row r="29" spans="1:44">
       <c r="A29" s="4"/>
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
@@ -2079,31 +2666,46 @@
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
-      <c r="Q29" s="4" t="s">
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="11"/>
+      <c r="AD29" s="11"/>
+      <c r="AE29" s="11"/>
+      <c r="AF29" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="R29" s="4" t="s">
+      <c r="AG29" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="S29" s="4">
+      <c r="AH29" s="4">
         <v>1</v>
       </c>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="9" t="s">
+      <c r="AI29" s="4"/>
+      <c r="AJ29" s="4"/>
+      <c r="AK29" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="W29" s="9"/>
-      <c r="X29" s="9" t="s">
+      <c r="AL29" s="9"/>
+      <c r="AM29" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="Y29" s="9"/>
-      <c r="Z29" s="4"/>
-      <c r="AA29" s="4"/>
-      <c r="AB29" s="4"/>
-      <c r="AC29" s="4"/>
-    </row>
-    <row r="30" spans="1:29">
+      <c r="AN29" s="9"/>
+      <c r="AO29" s="4"/>
+      <c r="AP29" s="4"/>
+      <c r="AQ29" s="4"/>
+      <c r="AR29" s="4"/>
+    </row>
+    <row r="30" spans="1:44">
       <c r="A30" s="4"/>
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
@@ -2122,29 +2724,44 @@
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
-      <c r="Q30" s="4" t="s">
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="11"/>
+      <c r="AF30" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4">
+      <c r="AG30" s="4"/>
+      <c r="AH30" s="4">
         <v>1</v>
       </c>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="9" t="s">
+      <c r="AI30" s="4"/>
+      <c r="AJ30" s="4"/>
+      <c r="AK30" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="W30" s="9"/>
-      <c r="X30" s="9" t="s">
+      <c r="AL30" s="9"/>
+      <c r="AM30" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="Y30" s="9"/>
-      <c r="Z30" s="4"/>
-      <c r="AA30" s="4"/>
-      <c r="AB30" s="4"/>
-      <c r="AC30" s="4"/>
-    </row>
-    <row r="31" spans="1:29">
+      <c r="AN30" s="9"/>
+      <c r="AO30" s="4"/>
+      <c r="AP30" s="4"/>
+      <c r="AQ30" s="4"/>
+      <c r="AR30" s="4"/>
+    </row>
+    <row r="31" spans="1:44">
       <c r="A31" s="4"/>
       <c r="B31" s="6"/>
       <c r="C31" s="7"/>
@@ -2163,31 +2780,46 @@
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
-      <c r="Q31" s="4" t="s">
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="11"/>
+      <c r="AD31" s="11"/>
+      <c r="AE31" s="11"/>
+      <c r="AF31" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="R31" s="4" t="s">
+      <c r="AG31" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="S31" s="4">
+      <c r="AH31" s="4">
         <v>1</v>
       </c>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="9" t="s">
+      <c r="AI31" s="4"/>
+      <c r="AJ31" s="4"/>
+      <c r="AK31" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="W31" s="9"/>
-      <c r="X31" s="9" t="s">
+      <c r="AL31" s="9"/>
+      <c r="AM31" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="Y31" s="9"/>
-      <c r="Z31" s="4"/>
-      <c r="AA31" s="4"/>
-      <c r="AB31" s="4"/>
-      <c r="AC31" s="4"/>
-    </row>
-    <row r="32" spans="1:29">
+      <c r="AN31" s="9"/>
+      <c r="AO31" s="4"/>
+      <c r="AP31" s="4"/>
+      <c r="AQ31" s="4"/>
+      <c r="AR31" s="4"/>
+    </row>
+    <row r="32" spans="1:44">
       <c r="A32" s="4"/>
       <c r="B32" s="6"/>
       <c r="C32" s="7"/>
@@ -2206,31 +2838,46 @@
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
-      <c r="Q32" s="4" t="s">
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="11"/>
+      <c r="AD32" s="11"/>
+      <c r="AE32" s="11"/>
+      <c r="AF32" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="R32" s="4" t="s">
+      <c r="AG32" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="S32" s="4">
+      <c r="AH32" s="4">
         <v>1</v>
       </c>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="9" t="s">
+      <c r="AI32" s="4"/>
+      <c r="AJ32" s="4"/>
+      <c r="AK32" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="W32" s="9"/>
-      <c r="X32" s="9" t="s">
+      <c r="AL32" s="9"/>
+      <c r="AM32" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="4"/>
-      <c r="AA32" s="4"/>
-      <c r="AB32" s="4"/>
-      <c r="AC32" s="4"/>
-    </row>
-    <row r="33" spans="1:29">
+      <c r="AN32" s="9"/>
+      <c r="AO32" s="4"/>
+      <c r="AP32" s="4"/>
+      <c r="AQ32" s="4"/>
+      <c r="AR32" s="4"/>
+    </row>
+    <row r="33" spans="1:44">
       <c r="A33" s="4"/>
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
@@ -2249,29 +2896,44 @@
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
-      <c r="Q33" s="4" t="s">
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="11"/>
+      <c r="AD33" s="11"/>
+      <c r="AE33" s="11"/>
+      <c r="AF33" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4">
+      <c r="AG33" s="4"/>
+      <c r="AH33" s="4">
         <v>1</v>
       </c>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="9" t="s">
+      <c r="AI33" s="4"/>
+      <c r="AJ33" s="4"/>
+      <c r="AK33" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="W33" s="9"/>
-      <c r="X33" s="9" t="s">
+      <c r="AL33" s="9"/>
+      <c r="AM33" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="Y33" s="9"/>
-      <c r="Z33" s="4"/>
-      <c r="AA33" s="4"/>
-      <c r="AB33" s="4"/>
-      <c r="AC33" s="4"/>
-    </row>
-    <row r="34" spans="1:29">
+      <c r="AN33" s="9"/>
+      <c r="AO33" s="4"/>
+      <c r="AP33" s="4"/>
+      <c r="AQ33" s="4"/>
+      <c r="AR33" s="4"/>
+    </row>
+    <row r="34" spans="1:44">
       <c r="A34" s="4"/>
       <c r="B34" s="6"/>
       <c r="C34" s="7"/>
@@ -2290,31 +2952,46 @@
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
-      <c r="Q34" s="4" t="s">
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="11"/>
+      <c r="AB34" s="11"/>
+      <c r="AC34" s="11"/>
+      <c r="AD34" s="11"/>
+      <c r="AE34" s="11"/>
+      <c r="AF34" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4">
+      <c r="AG34" s="4"/>
+      <c r="AH34" s="4">
         <v>1</v>
       </c>
-      <c r="T34" s="4" t="s">
+      <c r="AI34" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="U34" s="4"/>
-      <c r="V34" s="9" t="s">
+      <c r="AJ34" s="4"/>
+      <c r="AK34" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="W34" s="9"/>
-      <c r="X34" s="9" t="s">
+      <c r="AL34" s="9"/>
+      <c r="AM34" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="Y34" s="9"/>
-      <c r="Z34" s="4"/>
-      <c r="AA34" s="4"/>
-      <c r="AB34" s="4"/>
-      <c r="AC34" s="4"/>
-    </row>
-    <row r="35" spans="1:29">
+      <c r="AN34" s="9"/>
+      <c r="AO34" s="4"/>
+      <c r="AP34" s="4"/>
+      <c r="AQ34" s="4"/>
+      <c r="AR34" s="4"/>
+    </row>
+    <row r="35" spans="1:44">
       <c r="A35" s="4"/>
       <c r="B35" s="6"/>
       <c r="C35" s="7"/>
@@ -2333,29 +3010,44 @@
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
-      <c r="Q35" s="4" t="s">
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="11"/>
+      <c r="AB35" s="11"/>
+      <c r="AC35" s="11"/>
+      <c r="AD35" s="11"/>
+      <c r="AE35" s="11"/>
+      <c r="AF35" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4">
+      <c r="AG35" s="4"/>
+      <c r="AH35" s="4">
         <v>1</v>
       </c>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="9" t="s">
+      <c r="AI35" s="4"/>
+      <c r="AJ35" s="4"/>
+      <c r="AK35" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="W35" s="9"/>
-      <c r="X35" s="9" t="s">
+      <c r="AL35" s="9"/>
+      <c r="AM35" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="Y35" s="9"/>
-      <c r="Z35" s="4"/>
-      <c r="AA35" s="4"/>
-      <c r="AB35" s="4"/>
-      <c r="AC35" s="4"/>
-    </row>
-    <row r="36" spans="1:29">
+      <c r="AN35" s="9"/>
+      <c r="AO35" s="4"/>
+      <c r="AP35" s="4"/>
+      <c r="AQ35" s="4"/>
+      <c r="AR35" s="4"/>
+    </row>
+    <row r="36" spans="1:44">
       <c r="A36" s="4"/>
       <c r="B36" s="6"/>
       <c r="C36" s="8" t="s">
@@ -2374,29 +3066,44 @@
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
-      <c r="Q36" s="4" t="s">
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="11"/>
+      <c r="AB36" s="11"/>
+      <c r="AC36" s="11"/>
+      <c r="AD36" s="11"/>
+      <c r="AE36" s="11"/>
+      <c r="AF36" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4">
+      <c r="AG36" s="4"/>
+      <c r="AH36" s="4">
         <v>1</v>
       </c>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="9" t="s">
+      <c r="AI36" s="4"/>
+      <c r="AJ36" s="4"/>
+      <c r="AK36" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="W36" s="9"/>
-      <c r="X36" s="9" t="s">
+      <c r="AL36" s="9"/>
+      <c r="AM36" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="Y36" s="9"/>
-      <c r="Z36" s="4"/>
-      <c r="AA36" s="4"/>
-      <c r="AB36" s="4"/>
-      <c r="AC36" s="4"/>
-    </row>
-    <row r="39" spans="1:29" ht="5" customHeight="1">
+      <c r="AN36" s="9"/>
+      <c r="AO36" s="4"/>
+      <c r="AP36" s="4"/>
+      <c r="AQ36" s="4"/>
+      <c r="AR36" s="4"/>
+    </row>
+    <row r="39" spans="1:44" ht="5" customHeight="1">
       <c r="A39" s="10" t="s">
         <v>129</v>
       </c>
@@ -2428,6 +3135,21 @@
       <c r="AA39" s="10"/>
       <c r="AB39" s="10"/>
       <c r="AC39" s="10"/>
+      <c r="AD39" s="10"/>
+      <c r="AE39" s="10"/>
+      <c r="AF39" s="10"/>
+      <c r="AG39" s="10"/>
+      <c r="AH39" s="10"/>
+      <c r="AI39" s="10"/>
+      <c r="AJ39" s="10"/>
+      <c r="AK39" s="10"/>
+      <c r="AL39" s="10"/>
+      <c r="AM39" s="10"/>
+      <c r="AN39" s="10"/>
+      <c r="AO39" s="10"/>
+      <c r="AP39" s="10"/>
+      <c r="AQ39" s="10"/>
+      <c r="AR39" s="10"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
